--- a/results/mp/logistic/home-spam/confidence/126/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/126/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -43,85 +43,85 @@
     <t>return</t>
   </si>
   <si>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>useless</t>
-  </si>
-  <si>
-    <t>waste</t>
+    <t>filters</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>filters</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>thin</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
     <t>maybe</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>months</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
     <t>broken</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
     <t>plastic</t>
   </si>
   <si>
     <t>lid</t>
   </si>
   <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>received</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>worked</t>
   </si>
   <si>
-    <t>back</t>
+    <t>fit</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>would</t>
+    <t>product</t>
   </si>
   <si>
     <t>negative</t>
@@ -130,22 +130,22 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
-  </si>
-  <si>
-    <t>pleased</t>
   </si>
   <si>
     <t>happy</t>
@@ -584,13 +584,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9469026548672567</v>
+        <v>0.9646017699115044</v>
       </c>
       <c r="C3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D3">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>37</v>
@@ -634,13 +634,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.92</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C4">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -652,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K4">
-        <v>0.7419354838709677</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L4">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="M4">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -684,13 +684,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9191919191919192</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>91</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,19 +702,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K5">
-        <v>0.7391304347826086</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="L5">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="M5">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -734,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8867924528301887</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +752,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K6">
-        <v>0.688135593220339</v>
+        <v>0.6983050847457627</v>
       </c>
       <c r="L6">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M6">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,13 +784,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.875</v>
+        <v>0.85</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>41</v>
@@ -834,13 +834,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8728813559322034</v>
+        <v>0.84</v>
       </c>
       <c r="C8">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="D8">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,19 +852,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K8">
-        <v>0.5281385281385281</v>
+        <v>0.5194805194805194</v>
       </c>
       <c r="L8">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>109</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -884,13 +884,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8269230769230769</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,13 +908,13 @@
         <v>43</v>
       </c>
       <c r="K9">
-        <v>0.5194805194805194</v>
+        <v>0.4718614718614719</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>37</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -934,13 +934,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D10">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K10">
-        <v>0.2514285714285714</v>
+        <v>0.1885714285714286</v>
       </c>
       <c r="L10">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -984,13 +984,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7351351351351352</v>
+        <v>0.745945945945946</v>
       </c>
       <c r="C11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1002,19 +1002,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K11">
-        <v>0.1757624398073836</v>
+        <v>0.1717495987158908</v>
       </c>
       <c r="L11">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="M11">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1026,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1027</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1034,13 +1034,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7058823529411765</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="C12">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D12">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1052,19 +1052,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>0.04794520547945205</v>
+        <v>0.0452054794520548</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1084,13 +1084,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6712328767123288</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C13">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1110,13 +1110,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6415094339622641</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="C14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1136,13 +1136,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6074074074074074</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="C15">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D15">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1162,13 +1162,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5660377358490566</v>
+        <v>0.5377358490566038</v>
       </c>
       <c r="C16">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D16">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1188,13 +1188,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5641025641025641</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C17">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1214,13 +1214,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1240,13 +1240,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5348837209302325</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="C19">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D19">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1266,13 +1266,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4820512820512821</v>
+        <v>0.4647887323943662</v>
       </c>
       <c r="C20">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="D20">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>101</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1292,13 +1292,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4788732394366197</v>
+        <v>0.4252873563218391</v>
       </c>
       <c r="C21">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1310,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1318,13 +1318,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4324324324324325</v>
+        <v>0.4</v>
       </c>
       <c r="C22">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1344,13 +1344,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4247787610619469</v>
+        <v>0.3918918918918919</v>
       </c>
       <c r="C23">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D23">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1362,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>65</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1370,13 +1370,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4022988505747127</v>
+        <v>0.3893805309734513</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1396,13 +1396,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3365384615384616</v>
+        <v>0.3009708737864077</v>
       </c>
       <c r="C25">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1422,13 +1422,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3300970873786408</v>
+        <v>0.2756410256410257</v>
       </c>
       <c r="C26">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>69</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1448,13 +1448,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2402234636871508</v>
+        <v>0.2458100558659218</v>
       </c>
       <c r="C27">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D27">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1474,13 +1474,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2307692307692308</v>
+        <v>0.145</v>
       </c>
       <c r="C28">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1492,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>120</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1500,13 +1500,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1509433962264151</v>
+        <v>0.1347708894878706</v>
       </c>
       <c r="C29">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D29">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1526,25 +1526,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04217687074829932</v>
+        <v>0.04967320261437908</v>
       </c>
       <c r="C30">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>704</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>
